--- a/阶乘计算测试程序.xlsx
+++ b/阶乘计算测试程序.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E95C3A-6DF1-4D17-BDD9-EE0D1C277286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E9DFE-4150-4C84-B823-37F87244791F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4608" yWindow="4608" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>首地址</t>
   </si>
@@ -40,27 +40,18 @@
     <t>0x02</t>
   </si>
   <si>
-    <t xml:space="preserve"> #21H</t>
-  </si>
-  <si>
     <t>4021H</t>
   </si>
   <si>
     <t>0x04</t>
   </si>
   <si>
-    <t xml:space="preserve"> #20H</t>
-  </si>
-  <si>
     <t>2020H</t>
   </si>
   <si>
     <t>0x06</t>
   </si>
   <si>
-    <t xml:space="preserve"> #16H</t>
-  </si>
-  <si>
     <t>E016H</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>0x14</t>
   </si>
   <si>
-    <t xml:space="preserve"> #04</t>
-  </si>
-  <si>
     <t>D004H</t>
   </si>
   <si>
@@ -118,7 +106,19 @@
     <t>F0H</t>
   </si>
   <si>
-    <t xml:space="preserve"> #21H</t>
+    <t>20H</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>21H</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f(x)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +305,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F792FC0-588F-41B4-BD9F-9BB9B5380751}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -359,7 +359,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A05CD04-CBF9-4624-A1DF-85FF7E0DC604}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -413,7 +413,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F483031E-7048-4658-8A79-296AFC9F4C4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -467,7 +467,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FD93E3-7854-42BA-8684-73C7BA4E5E51}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -521,7 +521,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C14616-6081-4E45-9C95-9FD0EAED4802}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -575,7 +575,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4699950D-41A6-41F0-8D2B-044A43291216}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -629,7 +629,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF659049-8989-436E-943D-2C1D1B56B82C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -683,7 +683,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5BBB3A-7631-4B3E-B644-9311BB7BF772}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -737,7 +737,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0509F12F-DFA5-4BCE-9464-B238436767A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -791,7 +791,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CE366E-11C0-490B-9227-E8C4FDA1EE02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -845,7 +845,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B41045-52D4-48E7-BD11-7DD528A80380}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -899,7 +899,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405112A1-082A-4B0C-A70B-11D0F2AC555B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -953,7 +953,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA1414C-82B9-4CE5-9BF5-03404DD0A8E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1007,7 +1007,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9754CBC-BC65-4E8F-8BE7-C774820C63C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1304,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1315,7 @@
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,148 +1326,142 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
